--- a/medicine/Sexualité et sexologie/Liberté_sexuelle_(film)/Liberté_sexuelle_(film).xlsx
+++ b/medicine/Sexualité et sexologie/Liberté_sexuelle_(film)/Liberté_sexuelle_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Libert%C3%A9_sexuelle_(film)</t>
+          <t>Liberté_sexuelle_(film)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Liberté sexuelle est un film français réalisé par Ovidie sorti en 2012. C'est après Histoires de sexe(s) en 2009 et Infidélité en 2010 la troisième comédie de mœurs pornographique réalisée par Ovidie.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Libert%C3%A9_sexuelle_(film)</t>
+          <t>Liberté_sexuelle_(film)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Léonie-Marie est une journaliste parisienne qui travaille pour une émission de téléréalité, Confessions amoureuses. C'est pour elle un travail alimentaire que son mari, critique littéraire, réprouve. Elle part faire un reportage dans le Jura dans une communauté de quatre femmes et quatre hommes qui pratiquent l'amour libre.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Libert%C3%A9_sexuelle_(film)</t>
+          <t>Liberté_sexuelle_(film)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original français : Liberté sexuelle
 Titre anglais : Sexual Freedom
@@ -574,7 +590,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Libert%C3%A9_sexuelle_(film)</t>
+          <t>Liberté_sexuelle_(film)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -592,7 +608,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ovidie : Léonie-Marie
 Liza Del Sierra : Olga
